--- a/memo/テーブル設計.xlsx
+++ b/memo/テーブル設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T123085\github\DB_project\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E936D5-32D2-44F8-89E3-A0E3A5466EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8A7E06-FFD1-428D-B9AB-3D77176E54C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
